--- a/Client/DataTables/Datas/#ItemSummary.xlsx
+++ b/Client/DataTables/Datas/#ItemSummary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="3" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>描述7</t>
+  </si>
+  <si>
+    <t>道具8</t>
+  </si>
+  <si>
+    <t>描述8</t>
   </si>
 </sst>
 </file>
@@ -801,6 +807,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1289,6 +1302,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>1008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>551</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
